--- a/biology/Médecine/Muscle_crico-aryténoïdien_postérieur/Muscle_crico-aryténoïdien_postérieur.xlsx
+++ b/biology/Médecine/Muscle_crico-aryténoïdien_postérieur/Muscle_crico-aryténoïdien_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_crico-aryt%C3%A9no%C3%AFdien_post%C3%A9rieur</t>
+          <t>Muscle_crico-aryténoïdien_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles crico-aryténoïdiens postérieurs sont de petits muscles aplatis, triangulaires à sommet supéro-externe et pairs qui s'étendent entre le cartilage cricoïde et le cartilage aryténoïde du larynx.
 C'est le muscle le plus puissant du larynx dont il occupe la face postérieure.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_crico-aryt%C3%A9no%C3%AFdien_post%C3%A9rieur</t>
+          <t>Muscle_crico-aryténoïdien_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,13 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine et insertion
-Le muscle crico-aryténoïde postérieur provient de la surface postérieure de la lame carrée postérieure du cartilage cricoïde.
+          <t>Origine et insertion</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle crico-aryténoïde postérieur provient de la surface postérieure de la lame carrée postérieure du cartilage cricoïde.
 Il se termine en haut et en dehors sur la face postéro-médiale du processus musculaire du cartilage aryténoïde.
 Ses ventres médians et latéraux distincts s'insèrent sur les surfaces opposées du processus musculaire.
-Innervation
-Il est innervé  par la division antérieure du nerf laryngé récurrent, une branche du nerf vague (X)[1],[2].
-Parfois, différentes parties du muscle (telles que les ventres musculaires médial et latéral) sont innervées par des branches séparées[1]. Cela peut varier entre 1 et 6 branches, généralement 2 ou 3[2].
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_crico-aryt%C3%A9no%C3%AFdien_post%C3%A9rieur</t>
+          <t>Muscle_crico-aryténoïdien_postérieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,15 +560,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Fonction</t>
+          <t>Anatomie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ce sont les seuls muscles à ouvrir les cordes vocales[3].
-En faisant tourner latéralement les cartilages aryténoïdes, ces muscles éloignent les cordes vocales[3],[4]  et ouvre la fente de la glotte[4].
-Ceci est important dans la respiration et la parole[3].
-Leur action s'oppose aux muscles crico-aryténoïdiens latéraux.
+          <t>Innervation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé  par la division antérieure du nerf laryngé récurrent, une branche du nerf vague (X),.
+Parfois, différentes parties du muscle (telles que les ventres musculaires médial et latéral) sont innervées par des branches séparées. Cela peut varier entre 1 et 6 branches, généralement 2 ou 3.
 </t>
         </is>
       </c>
@@ -565,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_crico-aryt%C3%A9no%C3%AFdien_post%C3%A9rieur</t>
+          <t>Muscle_crico-aryténoïdien_postérieur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,13 +598,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Fonction</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont les seuls muscles à ouvrir les cordes vocales.
+En faisant tourner latéralement les cartilages aryténoïdes, ces muscles éloignent les cordes vocales,  et ouvre la fente de la glotte.
+Ceci est important dans la respiration et la parole.
+Leur action s'oppose aux muscles crico-aryténoïdiens latéraux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscle_crico-aryténoïdien_postérieur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_crico-aryt%C3%A9no%C3%AFdien_post%C3%A9rieur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La paralysie des muscles crico-aryténoïdes postérieurs peut entraîner une asphyxie, car ce sont les seuls muscles laryngés à ouvrir les cordes vocales (permettant la respiration )[5].
-Leur dénervation entraîne une fibrose lente qui s'aggrave sur plusieurs mois[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La paralysie des muscles crico-aryténoïdes postérieurs peut entraîner une asphyxie, car ce sont les seuls muscles laryngés à ouvrir les cordes vocales (permettant la respiration ).
+Leur dénervation entraîne une fibrose lente qui s'aggrave sur plusieurs mois.
 </t>
         </is>
       </c>
